--- a/docs/excelsample.xlsx
+++ b/docs/excelsample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sekine/repos/wftest/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F10244A-F933-6C44-B792-8047512D7799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F0A53-3EF4-E141-B6ED-B8C8B521A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1800" windowWidth="28300" windowHeight="17440" xr2:uid="{99E710AC-F201-A243-9318-5258B848D4E9}"/>
+    <workbookView xWindow="8340" yWindow="5540" windowWidth="28300" windowHeight="17440" xr2:uid="{99E710AC-F201-A243-9318-5258B848D4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>description</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>c5.xlarge</t>
+  </si>
+  <si>
+    <t>alim-common</t>
+  </si>
+  <si>
+    <t>cache.t2.micro</t>
   </si>
 </sst>
 </file>
@@ -427,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91A0D30-BBF7-704C-AAF0-9938AE20B2BE}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -489,6 +495,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/excelsample.xlsx
+++ b/docs/excelsample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sekine/repos/wftest/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0F0A53-3EF4-E141-B6ED-B8C8B521A14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2499A-CF22-B249-A3CC-B3418C896990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="5540" windowWidth="28300" windowHeight="17440" xr2:uid="{99E710AC-F201-A243-9318-5258B848D4E9}"/>
+    <workbookView xWindow="8340" yWindow="2460" windowWidth="28300" windowHeight="17440" xr2:uid="{99E710AC-F201-A243-9318-5258B848D4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>description</t>
   </si>
@@ -433,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91A0D30-BBF7-704C-AAF0-9938AE20B2BE}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -515,6 +515,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/excelsample.xlsx
+++ b/docs/excelsample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sekine/repos/wftest/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA2499A-CF22-B249-A3CC-B3418C896990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CB8894-1E7B-DB4E-8968-E80DE5D3F9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="2460" windowWidth="28300" windowHeight="17440" xr2:uid="{99E710AC-F201-A243-9318-5258B848D4E9}"/>
+    <workbookView xWindow="7700" yWindow="2460" windowWidth="28300" windowHeight="17440" xr2:uid="{99E710AC-F201-A243-9318-5258B848D4E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>description</t>
   </si>
@@ -44,19 +44,29 @@
     <t>instance_type</t>
   </si>
   <si>
-    <t>alim-bf2</t>
-  </si>
-  <si>
     <t>c5.large</t>
   </si>
   <si>
     <t>c5.xlarge</t>
   </si>
   <si>
-    <t>alim-common</t>
-  </si>
-  <si>
     <t>cache.t2.micro</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bbbbb</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ccccc</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ddddd</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -436,7 +446,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -457,10 +467,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -477,10 +487,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -497,10 +507,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -517,10 +527,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
